--- a/Örnek 12 - Metni Kaydır.xlsx
+++ b/Örnek 12 - Metni Kaydır.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagan_GUL\Desktop\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{806BDE5D-F367-42DB-96A9-1C2A454764D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>tokat</t>
   </si>
@@ -63,12 +64,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -166,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -180,21 +187,29 @@
       <alignment textRotation="135"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,44 +490,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="53"/>
   </sheetPr>
   <dimension ref="C2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="9">
+        <v>20215070019</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="9" spans="3:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="3:13" s="13" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -582,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E5:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,11 +631,11 @@
     </row>
     <row r="6" spans="5:10" ht="60" customHeight="1" x14ac:dyDescent="0.9">
       <c r="E6" s="1"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -643,13 +668,13 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="5:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="5:10" ht="117.75" x14ac:dyDescent="0.2">
@@ -735,13 +760,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="E6:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
